--- a/ProbabilityActivityDataSheets.xlsx
+++ b/ProbabilityActivityDataSheets.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://armyeitaas-my.sharepoint-mil.us/personal/benjamin_t_files_civ_army_mil/Documents/Documents/GEMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.t.files.civ\OneDrive - US Army\Documents\GEMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{592A218B-18A6-474F-B804-97F045E560E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F90912B-EF1C-4B58-B98D-60A900B6F788}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD054A-2C0F-40D3-A377-8CA235F2364B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="2565" windowWidth="27690" windowHeight="17685" activeTab="1" xr2:uid="{3CEDF724-812A-43BD-8BAE-55DB33E26B96}"/>
+    <workbookView xWindow="-120" yWindow="90" windowWidth="38640" windowHeight="21030" xr2:uid="{3CEDF724-812A-43BD-8BAE-55DB33E26B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Flip Data Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Flip Summary" sheetId="5" r:id="rId2"/>
     <sheet name="Main Data Sheet" sheetId="3" r:id="rId3"/>
-    <sheet name="Main Data Sheet 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Ellipse Summary" sheetId="6" r:id="rId5"/>
-    <sheet name="Scatter Summary" sheetId="7" r:id="rId6"/>
+    <sheet name="Ellipse Summary" sheetId="6" r:id="rId4"/>
+    <sheet name="Scatter Summary" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
   <si>
     <t>Flip</t>
   </si>
@@ -59,12 +58,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>First 30 Trials</t>
-  </si>
-  <si>
-    <t>Second 30 Trials</t>
   </si>
   <si>
     <t>subtotals</t>
@@ -124,6 +117,24 @@
   <si>
     <t>Scatter</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Easy Trials</t>
+  </si>
+  <si>
+    <t>Hard Trials</t>
+  </si>
 </sst>
 </file>
 
@@ -145,13 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="28"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,11 +220,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -223,27 +260,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1861,7 +1911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000000-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1938,7 +1988,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000001-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,7 +2065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000002-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2092,7 +2142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000003-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2169,7 +2219,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000004-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2246,7 +2296,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000005-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2329,7 +2379,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000006-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2412,7 +2462,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000007-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2495,7 +2545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000008-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2578,7 +2628,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{00000009-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2661,7 +2711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{0000000A-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2744,7 +2794,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{0000000B-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2830,7 +2880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-EF1A-4854-8AAD-42179C662039}"/>
+              <c16:uniqueId val="{0000000C-075A-4AC9-B5E8-FC89B90B615A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4299,7 +4349,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395D3A43-F867-4DB0-85F3-147237AD5846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949967CB-3475-443C-BDFF-C214F6051125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,12 +4385,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{61696276-BBF9-46B0-BCED-AC52768D4FC8}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31" xr:uid="{61696276-BBF9-46B0-BCED-AC52768D4FC8}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{61696276-BBF9-46B0-BCED-AC52768D4FC8}" name="Table6" displayName="Table6" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{61696276-BBF9-46B0-BCED-AC52768D4FC8}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4D348FE7-D65F-494F-A6A5-1D7C3D989D3B}" name="Group"/>
     <tableColumn id="2" xr3:uid="{620E11CF-D9A0-4CC0-97D4-295D71355683}" name="Number of Heads"/>
     <tableColumn id="3" xr3:uid="{E26B4F2E-66E1-4E74-8CB0-3B6BA72D3418}" name="Number of Flips"/>
+    <tableColumn id="4" xr3:uid="{CBE4D097-4B1B-41DD-A199-AF06DF76856F}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4365,62 +4416,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D287CA7-1804-4137-83F2-B433BD400AFC}" name="Table2" displayName="Table2" ref="A3:E33" totalsRowShown="0">
-  <autoFilter ref="A3:E33" xr:uid="{8D287CA7-1804-4137-83F2-B433BD400AFC}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D287CA7-1804-4137-83F2-B433BD400AFC}" name="Table2" displayName="Table2" ref="B3:G63" totalsRowShown="0">
+  <autoFilter ref="B3:G63" xr:uid="{8D287CA7-1804-4137-83F2-B433BD400AFC}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{63A2813A-EE38-4D86-937F-4EAA01E52B1F}" name="Trial"/>
+    <tableColumn id="6" xr3:uid="{96070383-F022-4DAA-904A-2B5B1AB083E0}" name="Team Member"/>
     <tableColumn id="2" xr3:uid="{18799585-9D04-4376-A00E-4A281D52ECF4}" name="Accuracy"/>
     <tableColumn id="3" xr3:uid="{4234BBE5-C6CE-4508-8A05-D9FAB1067671}" name="Speed"/>
     <tableColumn id="4" xr3:uid="{8888ACFA-98CF-4749-AFD8-02F44C72585E}" name="Total"/>
-    <tableColumn id="5" xr3:uid="{32F543B4-6CE0-458B-981D-1CDF2788DD9D}" name="subtotals" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{32F543B4-6CE0-458B-981D-1CDF2788DD9D}" name="subtotals" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{046D9D4C-5052-493E-B1F5-481EBDDC1C82}" name="Table24" displayName="Table24" ref="H3:L33" totalsRowShown="0">
-  <autoFilter ref="H3:L33" xr:uid="{046D9D4C-5052-493E-B1F5-481EBDDC1C82}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{046D9D4C-5052-493E-B1F5-481EBDDC1C82}" name="Table24" displayName="Table24" ref="J3:O63" totalsRowShown="0">
+  <autoFilter ref="J3:O63" xr:uid="{046D9D4C-5052-493E-B1F5-481EBDDC1C82}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4F197363-08EC-4CA3-8F9B-91B59089D22A}" name="Trial"/>
+    <tableColumn id="6" xr3:uid="{11567018-6C36-48DC-BE25-D53C58AFD73A}" name="Team Member" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{17470E7B-9E02-4A96-ADB5-234EBBD9DF36}" name="Accuracy"/>
     <tableColumn id="3" xr3:uid="{9C3C495E-883F-4F89-8F22-513714815A9D}" name="Speed"/>
     <tableColumn id="4" xr3:uid="{D85BB86D-DEC8-4CC9-8173-525C6ED976F2}" name="Total"/>
-    <tableColumn id="5" xr3:uid="{1C01CD4F-5245-4CC3-BDD2-A51597B6C298}" name="subtotals" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C01CD4F-5245-4CC3-BDD2-A51597B6C298}" name="subtotals" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2237B581-FE51-4EBB-B2C4-F30CC4F9185D}" name="Table25" displayName="Table25" ref="A3:E33" totalsRowShown="0">
-  <autoFilter ref="A3:E33" xr:uid="{8D287CA7-1804-4137-83F2-B433BD400AFC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9A6D1F0F-84E3-4E89-9D54-C290D5FB54D3}" name="Trial"/>
-    <tableColumn id="2" xr3:uid="{237C21FA-C086-4A31-B55B-5C36C1EF3473}" name="Accuracy"/>
-    <tableColumn id="3" xr3:uid="{F00B31F2-EC8A-4580-B602-C448F4D3A38F}" name="Speed"/>
-    <tableColumn id="4" xr3:uid="{FEBDB81B-9D8B-45BB-B337-16C479B8CC1F}" name="Total"/>
-    <tableColumn id="5" xr3:uid="{427506A2-7082-477B-A446-93834A1ABF6F}" name="subtotals" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{028D3CFD-D451-448F-B62F-85B3F81B23E8}" name="Table246" displayName="Table246" ref="H3:L33" totalsRowShown="0">
-  <autoFilter ref="H3:L33" xr:uid="{046D9D4C-5052-493E-B1F5-481EBDDC1C82}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F6829654-A006-451C-B975-B4D159156C08}" name="Trial"/>
-    <tableColumn id="2" xr3:uid="{64071A24-FEE3-4395-83F8-CFF2C6AB0B41}" name="Accuracy"/>
-    <tableColumn id="3" xr3:uid="{868224FF-78D2-46A3-B5A8-78FFD56E9D27}" name="Speed"/>
-    <tableColumn id="4" xr3:uid="{62AB3B81-451B-468D-94B0-976C677F9B64}" name="Total"/>
-    <tableColumn id="5" xr3:uid="{DB68EB73-9C01-45D5-8533-E2B99480AA8B}" name="subtotals" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AA30DFFF-FC59-4E78-ADBB-F29ED8003FAA}" name="Table9" displayName="Table9" ref="A2:E15" totalsRowShown="0">
   <autoFilter ref="A2:E15" xr:uid="{AA30DFFF-FC59-4E78-ADBB-F29ED8003FAA}"/>
   <tableColumns count="5">
@@ -4434,24 +4459,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D0144423-7E7D-4EF2-B069-4F9F502B6036}" name="Table911" displayName="Table911" ref="A2:E15" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2DA7447A-D40D-448A-BDCF-A0DECEDA281B}" name="Table95" displayName="Table95" ref="A2:E15" totalsRowShown="0">
   <autoFilter ref="A2:E15" xr:uid="{AA30DFFF-FC59-4E78-ADBB-F29ED8003FAA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0A74E684-4DF0-4929-83CE-B54434993C55}" name="Group"/>
-    <tableColumn id="2" xr3:uid="{EAAF8D2A-B71D-44CC-A74C-008B8A3CF206}" name="First 10 'easy'"/>
-    <tableColumn id="3" xr3:uid="{7BD7FFD1-8908-45CE-9ECC-1A2F464F2185}" name="Last 10 'easy'"/>
-    <tableColumn id="4" xr3:uid="{F059BC78-3963-4DCE-B9CB-D7E290112D6F}" name="First 10 'hard'"/>
-    <tableColumn id="5" xr3:uid="{580A7E9C-CFF9-48D8-A113-F3CF6FF73F11}" name="Last 10 'hard'"/>
+    <tableColumn id="1" xr3:uid="{6F62ED7E-02B9-41E7-B717-EB035D2D1151}" name="Group"/>
+    <tableColumn id="2" xr3:uid="{ABA9EAA2-2F7F-481B-8D59-3C150694440E}" name="First 10 'easy'"/>
+    <tableColumn id="3" xr3:uid="{A3A4491F-E3C8-4D8B-A7D4-322552FEE33A}" name="Last 10 'easy'"/>
+    <tableColumn id="4" xr3:uid="{63091490-B86B-4E0E-A2EA-1513C69F3C06}" name="First 10 'hard'"/>
+    <tableColumn id="5" xr3:uid="{3CA25E98-C7AA-471A-BD93-08A937C44776}" name="Last 10 'hard'"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4489,7 +4514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4595,7 +4620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4737,7 +4762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4747,8 +4772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3A2E44-550D-424A-BA23-195173FA98AD}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4763,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4834,8 +4859,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4848,69 +4873,93 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
       <c r="E2">
         <f>SUM(B:B)</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>SUM(C:C)</f>
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <f>Table8[[#This Row],[Total Heads]]/Table8[[#This Row],[Total Flips]]</f>
         <v>0</v>
-      </c>
-      <c r="G2" t="e">
-        <f>Table8[[#This Row],[Total Heads]]/Table8[[#This Row],[Total Flips]]</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5039,367 +5088,1057 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C0FE6-1B09-4C1B-B1BD-5854CE333B6C}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="J2" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="J4">
+        <v>61</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="J5">
+        <v>62</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="J6">
+        <v>63</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="J7">
+        <v>64</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="J8">
+        <v>65</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="J9">
+        <v>66</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="J10">
+        <v>67</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="J11">
+        <v>68</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>69</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="J13">
+        <v>70</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="J14">
+        <v>71</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="J15">
+        <v>72</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="J16">
+        <v>73</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="J17">
+        <v>74</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="J18">
+        <v>75</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="J19">
+        <v>76</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="J20">
+        <v>77</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="J21">
+        <v>78</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="J22">
+        <v>79</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="J23">
+        <v>80</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="J24">
+        <v>81</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="J25">
+        <v>82</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="J26">
+        <v>83</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="J27">
+        <v>84</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="J28">
+        <v>85</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="J29">
+        <v>86</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="J30">
+        <v>87</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="J31">
+        <v>88</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="J32">
+        <v>89</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="J33" s="9">
+        <v>90</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="2:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="J34">
+        <v>91</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="J35">
+        <v>92</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="J36">
+        <v>93</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="J37">
+        <v>94</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="J38">
+        <v>95</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="J39">
+        <v>96</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="J40">
+        <v>97</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="J41">
+        <v>98</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>99</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="H4">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="H6">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="H9">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="2:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="J44">
+        <v>101</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="J45">
+        <v>102</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="J46">
+        <v>103</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="J47">
+        <v>104</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="J48">
+        <v>105</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="J49">
+        <v>106</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="J50">
+        <v>107</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="J51">
+        <v>108</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="J52">
+        <v>109</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="J53">
+        <v>110</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="J54">
+        <v>111</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="J55">
+        <v>112</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="J56">
+        <v>113</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="J57">
+        <v>114</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="J58">
+        <v>115</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="J59">
+        <v>116</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="J60">
+        <v>117</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="J61">
+        <v>118</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="H10">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="H11">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="J62">
+        <v>119</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>39</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="H14">
-        <v>41</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="H15">
-        <v>42</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="H16">
-        <v>43</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="H17">
-        <v>44</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="H18">
-        <v>45</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="H19">
-        <v>46</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="H20">
-        <v>47</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="H21">
-        <v>48</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="H22">
-        <v>49</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="H23">
-        <v>50</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="H24">
-        <v>51</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="H25">
-        <v>52</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="H26">
-        <v>53</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="H27">
-        <v>54</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="H28">
-        <v>55</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="H29">
-        <v>56</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="H30">
-        <v>57</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    </row>
+    <row r="63" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="H31">
-        <v>58</v>
-      </c>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32">
-        <v>59</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="H33">
-        <v>60</v>
-      </c>
-      <c r="L33" s="6"/>
-    </row>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
+      <c r="J63">
+        <v>120</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="2:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5411,379 +6150,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2999FE31-A52B-41FE-A8CB-7262A32E21E2}">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="H4">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="H6">
-        <v>33</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="H9">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="H10">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="H11">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>39</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="H14">
-        <v>41</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="H15">
-        <v>42</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="H16">
-        <v>43</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="H17">
-        <v>44</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="H18">
-        <v>45</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="H19">
-        <v>46</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="H20">
-        <v>47</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="H21">
-        <v>48</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="H22">
-        <v>49</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="H23">
-        <v>50</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="H24">
-        <v>51</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="H25">
-        <v>52</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="H26">
-        <v>53</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="H27">
-        <v>54</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="H28">
-        <v>55</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="H29">
-        <v>56</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="H30">
-        <v>57</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="H31">
-        <v>58</v>
-      </c>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32">
-        <v>59</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="H33">
-        <v>60</v>
-      </c>
-      <c r="L33" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAA510A-F97A-4026-9F88-CB387450BB0A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -5804,24 +6170,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,15 +6265,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F949265C-80DD-4527-896D-9A9B49A88424}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7B3A7-5F85-4E9A-ABBC-B5170A2103DF}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,24 +6286,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
